--- a/data/trans_camb/P2C_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R2-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.361008972186164</v>
+        <v>1.989200722550849</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.911815931652496</v>
+        <v>-3.774547952104643</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-34.95977568535876</v>
+        <v>-34.96499852002542</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.996329225139583</v>
+        <v>4.057847719677637</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-10.76365486054465</v>
+        <v>-10.62867681375426</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-40.94228505993865</v>
+        <v>-40.29440852016236</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>4.93160483447883</v>
+        <v>5.354192006319572</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.713362572241102</v>
+        <v>-4.82637578112007</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-35.93577565618052</v>
+        <v>-36.14051870786904</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.08069064214601</v>
+        <v>18.86505698503392</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.82990324378718</v>
+        <v>13.10056818885124</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-22.65530704257615</v>
+        <v>-22.34396869601005</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21.51745274771965</v>
+        <v>21.43305405227849</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.871817026719215</v>
+        <v>6.469844657940531</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-27.19103962300374</v>
+        <v>-26.83915420001068</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>17.50134636455153</v>
+        <v>17.89104161741844</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.992042907340911</v>
+        <v>6.803231311979113</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-27.27021976031512</v>
+        <v>-26.39812629796995</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.04180673006477019</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.7897533898058069</v>
+        <v>-0.789753389805807</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.3026344536230052</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.06715964534077837</v>
+        <v>0.06474715427222842</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1305947059888828</v>
+        <v>-0.1020554195443528</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8931029735893579</v>
+        <v>-0.8994514429430052</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.08073994742850671</v>
+        <v>0.08863175204233875</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2254822514439936</v>
+        <v>-0.2228391227609156</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8514117929632335</v>
+        <v>-0.843957823436041</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.115944113618161</v>
+        <v>0.1322393837023063</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1149060998986773</v>
+        <v>-0.1151680869286143</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.8502179506048705</v>
+        <v>-0.8520654410375056</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6245928076570326</v>
+        <v>0.6222777611846197</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3786163562077503</v>
+        <v>0.4463459426970275</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.7370531510413204</v>
+        <v>-0.7448097725432901</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5628242891360321</v>
+        <v>0.5599932595193564</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.156196948395415</v>
+        <v>0.1659529009325507</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.7140441878499399</v>
+        <v>-0.7174285606548464</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4762446851959414</v>
+        <v>0.5003718611334729</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1982768513359484</v>
+        <v>0.1894521095035969</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.7526451715079003</v>
+        <v>-0.7486320984766361</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>15.77197087447409</v>
+        <v>15.69525600139613</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.741576226873594</v>
+        <v>-1.505062637618956</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-16.33380243352009</v>
+        <v>-16.07524873569767</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13.43166101610737</v>
+        <v>13.44238918249513</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.245202428244501</v>
+        <v>-2.446104268240262</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-15.79347936724702</v>
+        <v>-15.97507010140792</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>16.39256484752008</v>
+        <v>16.77184550717003</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.2501605834610826</v>
+        <v>-0.5877026290290286</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-14.68863142605456</v>
+        <v>-14.09098276992273</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>28.17979983889655</v>
+        <v>27.89382990977859</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.880324697699992</v>
+        <v>9.505601628585589</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-6.200484850931228</v>
+        <v>-6.226499527936582</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25.451971891998</v>
+        <v>25.77735864567649</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.158562067683052</v>
+        <v>9.206331069727756</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-5.227615197128975</v>
+        <v>-5.414030484760638</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>24.7717244211049</v>
+        <v>25.42323705383817</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>7.885273497933852</v>
+        <v>7.563011769877949</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-7.261524657196429</v>
+        <v>-7.058158588360258</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.1049790162452342</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.3302733186173868</v>
+        <v>-0.330273318617387</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.7712965955282642</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.5980058005881214</v>
+        <v>0.6140636097052424</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.06663324164062126</v>
+        <v>-0.05869779876800203</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6284144372616387</v>
+        <v>-0.638134705964836</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3956041670526928</v>
+        <v>0.3819519108433145</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.07086487953503981</v>
+        <v>-0.07240651980864969</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4541102005910285</v>
+        <v>-0.4589945211352907</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.577128682962247</v>
+        <v>0.5532847001305333</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.00830915276211289</v>
+        <v>-0.02031900414595497</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4987614212837159</v>
+        <v>-0.4899583005549653</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.390006888380393</v>
+        <v>1.406253971262696</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4296389769991424</v>
+        <v>0.4593551296394544</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2904450995062621</v>
+        <v>-0.3017457249340392</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8972544253740913</v>
+        <v>0.9402166507348918</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3287530667513688</v>
+        <v>0.3314191528863734</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1815566085103482</v>
+        <v>-0.1893419384863303</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.003747560054687</v>
+        <v>1.041311035265918</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3286064776808189</v>
+        <v>0.3000107107933578</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.2759603229672018</v>
+        <v>-0.277211540351008</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-6.481514530354682</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-22.31719044672516</v>
+        <v>-22.31719044672517</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.040424041280231</v>
+        <v>3.14448414661575</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-15.16374042602055</v>
+        <v>-15.77139705134826</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-28.02817942497212</v>
+        <v>-28.14557038526424</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.142791926800994</v>
+        <v>7.5453637697546</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-12.31276370818172</v>
+        <v>-13.2870596837045</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-28.75140190857352</v>
+        <v>-29.00238971900541</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.47996158105598</v>
+        <v>7.84994356538431</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-11.70485583046467</v>
+        <v>-11.35029820506786</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-26.52567884852991</v>
+        <v>-26.85479551187748</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.01699797904757</v>
+        <v>17.86277358930344</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0854017133341337</v>
+        <v>-1.007738155010664</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-15.48523199618831</v>
+        <v>-15.15602345657845</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23.6030452796344</v>
+        <v>23.47062480855072</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.748000251947633</v>
+        <v>1.294288810590777</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-16.50896213489499</v>
+        <v>-17.20859016829539</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>18.29349420696399</v>
+        <v>18.42808626771013</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-1.555485779971616</v>
+        <v>-1.511896604411475</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-18.03533348753342</v>
+        <v>-17.9721054957381</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.1855679742059949</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.63894878300019</v>
+        <v>-0.6389487830001901</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.07146003896957734</v>
+        <v>0.08541704320231552</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4001840964571068</v>
+        <v>-0.4086601395877138</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7345042853952521</v>
+        <v>-0.7445258533898933</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2039769630161134</v>
+        <v>0.1871718589325075</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3123675864650469</v>
+        <v>-0.3367918662135507</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7277344770366475</v>
+        <v>-0.7215397997101874</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1945841023833983</v>
+        <v>0.2123673347454058</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.308594164578033</v>
+        <v>-0.3025649141764444</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.7116354571650486</v>
+        <v>-0.7086223044339169</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5940097177836894</v>
+        <v>0.6014621679488836</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.002818782524317962</v>
+        <v>-0.03271105106308292</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.4992277029014655</v>
+        <v>-0.4999008164915793</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.768135726243857</v>
+        <v>0.7636235010220115</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.05666295840625536</v>
+        <v>0.04124675708150952</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.5308315400620841</v>
+        <v>-0.5193631470522886</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5630787194380751</v>
+        <v>0.5765551725610442</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.04710226291360826</v>
+        <v>-0.0459532059311446</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.5586300423836147</v>
+        <v>-0.5515297625210916</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.095936721451435</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-12.65811392936548</v>
+        <v>-12.65811392936547</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>17.44688652537712</v>
@@ -1297,7 +1297,7 @@
         <v>1.382970032801739</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-21.29186299448104</v>
+        <v>-21.29186299448103</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>19.0721350048216</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>13.73482190470567</v>
+        <v>13.30050524070539</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.267706805722644</v>
+        <v>-5.452490173582604</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-20.01713351371674</v>
+        <v>-19.67108693554367</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9.695923603419443</v>
+        <v>10.6925937357952</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.517195990346454</v>
+        <v>-5.800060084696839</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-27.18671617221743</v>
+        <v>-27.4732065714417</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>14.10807561423142</v>
+        <v>13.96832187748137</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.447464306437349</v>
+        <v>-3.826641397649832</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-21.15530646444101</v>
+        <v>-21.33953488634613</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>28.0984437192668</v>
+        <v>27.98861344951019</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.031370771680297</v>
+        <v>8.204993974705825</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-5.885365648959788</v>
+        <v>-5.297282028297683</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24.53780920899546</v>
+        <v>23.8953295704302</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.14702759504895</v>
+        <v>8.488981622502408</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-15.59656205534614</v>
+        <v>-15.68528819303708</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>24.20975224132959</v>
+        <v>24.1175971867616</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.050763890915989</v>
+        <v>6.008677967178564</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-12.225958186637</v>
+        <v>-12.77226158419217</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.03773686023631701</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.4358622782300941</v>
+        <v>-0.435862278230094</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.4550278418281108</v>
@@ -1402,7 +1402,7 @@
         <v>0.03606889220167749</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.5553077021958279</v>
+        <v>-0.5553077021958278</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.5647082011644887</v>
@@ -1411,7 +1411,7 @@
         <v>0.03753437719546365</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.5044183434731401</v>
+        <v>-0.5044183434731402</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.4237404768419182</v>
+        <v>0.4133686247700242</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1876982127192126</v>
+        <v>-0.1714062392958497</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6138534243507276</v>
+        <v>-0.6113738657084422</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2333509010608931</v>
+        <v>0.2567907605191155</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1323565308087617</v>
+        <v>-0.1337229576480195</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6490972065194168</v>
+        <v>-0.6517470737309485</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3880108628205687</v>
+        <v>0.3759888120728954</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.09525450614336275</v>
+        <v>-0.1043446221419215</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5927889705700917</v>
+        <v>-0.5920403896679082</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.071649561836777</v>
+        <v>1.118823359243336</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3155974448200822</v>
+        <v>0.3231410281440965</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2086235163228076</v>
+        <v>-0.1976296374392523</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7125230652164586</v>
+        <v>0.7029328172210157</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2597974868072366</v>
+        <v>0.2455862622165064</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.4401170450813125</v>
+        <v>-0.4416146185176082</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7801595668420896</v>
+        <v>0.7639840197952893</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1933708976878373</v>
+        <v>0.1889543441834058</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.3843967913784355</v>
+        <v>-0.3928230567916326</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>14.85151281329806</v>
+        <v>15.1104295359486</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>10.63862650655902</v>
+        <v>9.665102197407862</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-20.18164030333168</v>
+        <v>-19.2184567875663</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>15.4489215527731</v>
+        <v>16.43428895876432</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>7.740709493830758</v>
+        <v>7.353851967878762</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-26.16971766874695</v>
+        <v>-25.77945466022809</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>18.96265216811637</v>
+        <v>18.79021742771654</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>11.56138888689665</v>
+        <v>12.01944118580666</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-20.89279889982159</v>
+        <v>-20.31745939777118</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>33.07793358116926</v>
+        <v>33.39304476776231</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>28.76154328278285</v>
+        <v>28.23942235413802</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-5.052594512720905</v>
+        <v>-5.24414989532962</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>34.75343275594987</v>
+        <v>35.73250663886371</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>26.25335396969767</v>
+        <v>25.68189986713513</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-11.96794909538073</v>
+        <v>-11.26812808759592</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>32.07996341882063</v>
+        <v>31.55924007688004</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>24.0549966046408</v>
+        <v>25.02757887079763</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-10.32892987690428</v>
+        <v>-9.58340829976091</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.5380130861064006</v>
+        <v>0.5274058270079678</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.387770169288856</v>
+        <v>0.3437330545140963</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7062780429853415</v>
+        <v>-0.6960294070035105</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.4394267104274825</v>
+        <v>0.4604462688723918</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2031699470431557</v>
+        <v>0.2036586381691401</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.7197501795815092</v>
+        <v>-0.72424191179491</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6346722115956078</v>
+        <v>0.6228625761715499</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.3846788334063613</v>
+        <v>0.4152936936695713</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.6823601958855666</v>
+        <v>-0.671932128906661</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.819584009491886</v>
+        <v>1.744882092273247</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.534188593483138</v>
+        <v>1.494162835382346</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2417452121055395</v>
+        <v>-0.2598410247228322</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.368629272962023</v>
+        <v>1.40290447596985</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.024932687290083</v>
+        <v>1.006068645347897</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.4595391357206203</v>
+        <v>-0.4510562879436655</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.35034208435047</v>
+        <v>1.334613697270529</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.9868340906211268</v>
+        <v>1.08012517558314</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.429572834969048</v>
+        <v>-0.4174998250105872</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>3.687692887878974</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-5.725858112600693</v>
+        <v>-5.725858112600707</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>15.93256773963679</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>1.048344351480778</v>
+        <v>1.582875920138714</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-14.72696454551185</v>
+        <v>-14.45183377381062</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-23.88321495786919</v>
+        <v>-23.7007895189675</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>13.28677963396159</v>
+        <v>13.35245559656844</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.333411734672987</v>
+        <v>-4.664758732044028</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-12.35975517143122</v>
+        <v>-12.9354623569682</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>10.021358871966</v>
+        <v>10.52213061143456</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-6.866763344747643</v>
+        <v>-6.950838029765779</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-15.94649274094628</v>
+        <v>-16.230764003791</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>17.98016038769323</v>
+        <v>18.09213840864381</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.610200288984486</v>
+        <v>1.576526488637747</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-9.910196012140782</v>
+        <v>-9.429536016652742</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>29.75468163766783</v>
+        <v>29.61802382084191</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>11.59194861282987</v>
+        <v>11.91211993312061</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.473709491032854</v>
+        <v>1.445353439825557</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>21.62298529443925</v>
+        <v>22.26434701377563</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.211793776775679</v>
+        <v>4.632110379055138</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-5.814346433086994</v>
+        <v>-6.560741451674003</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.1708758947273253</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.4795588468194456</v>
+        <v>-0.4795588468194455</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.7441375188870565</v>
@@ -1830,7 +1830,7 @@
         <v>0.1252571357385417</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.1944859858550111</v>
+        <v>-0.1944859858550116</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.494039582188889</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.02348123517326932</v>
+        <v>0.04711138384704436</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3695139885429565</v>
+        <v>-0.3743334873022169</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5992211919394963</v>
+        <v>-0.6051990891404897</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.3966362081788245</v>
+        <v>0.3852970371542399</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1280643262107293</v>
+        <v>-0.1367456258249466</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3670434485842267</v>
+        <v>-0.3812666972514955</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2805069941983737</v>
+        <v>0.3006602454942607</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1965258727137357</v>
+        <v>-0.1996644593292378</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4553548251914102</v>
+        <v>-0.4646663370028934</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.5745402766789709</v>
+        <v>0.5965276046579275</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.05393679695333432</v>
+        <v>0.05144463737229266</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.2996150738569753</v>
+        <v>-0.2945003333293141</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.1844401301797</v>
+        <v>1.191983988711441</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.481642797610521</v>
+        <v>0.466342365642076</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.06707655731733977</v>
+        <v>0.06342466619924568</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.7526077621593763</v>
+        <v>0.7655190142400935</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1366092466500821</v>
+        <v>0.1596163104792009</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.1976671794812624</v>
+        <v>-0.2201653961683154</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>10.11862321786016</v>
+        <v>10.00821116435268</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-7.686755079568567</v>
+        <v>-7.331558554814342</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-27.6484199918705</v>
+        <v>-27.27316323746228</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3.886288255326047</v>
+        <v>3.743465107032167</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-8.022005356301751</v>
+        <v>-8.2700745808382</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-35.30539128744834</v>
+        <v>-35.40277719809448</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>8.025556321287777</v>
+        <v>8.684413568373536</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-6.466145163268849</v>
+        <v>-6.280659950708134</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-30.29636270650117</v>
+        <v>-30.20770289091505</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>21.48503056618994</v>
+        <v>21.10607434335962</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.968539240349561</v>
+        <v>2.962786868823644</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-18.68116281415618</v>
+        <v>-18.35981447974775</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>14.53225499340114</v>
+        <v>14.58357119817805</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.629665274734676</v>
+        <v>2.525238085360276</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-27.06762211554237</v>
+        <v>-26.6207984679507</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>16.21136728615513</v>
+        <v>16.31528225058224</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.16233749299577</v>
+        <v>1.222469843393223</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-24.0922143455783</v>
+        <v>-24.25139947682585</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.3212868483544399</v>
+        <v>0.311203052962102</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2432777536223179</v>
+        <v>-0.2342516952058746</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.8615319422264559</v>
+        <v>-0.8642427438080104</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.09191255025750376</v>
+        <v>0.09431362195033355</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1934064405285294</v>
+        <v>-0.198110724517771</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.8381632822747155</v>
+        <v>-0.8359189883384716</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2185470141258093</v>
+        <v>0.2411155600472892</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1797038415503546</v>
+        <v>-0.1719805341495366</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.8325216899645558</v>
+        <v>-0.8319033581770038</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.8402114113144393</v>
+        <v>0.8179952902964895</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1267668267127598</v>
+        <v>0.1086047397377861</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.7155177149056231</v>
+        <v>-0.7086753115430907</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3925191344650443</v>
+        <v>0.4053093488270972</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.07185083311230231</v>
+        <v>0.07225947971388567</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.7409923319687703</v>
+        <v>-0.7328338092077138</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.504744010619115</v>
+        <v>0.5085312042875664</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.03640570505939967</v>
+        <v>0.03875759071021549</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.7435423380842654</v>
+        <v>-0.7475138303728363</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>7.130138941545527</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-5.801709679574721</v>
+        <v>-5.801709679574723</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>19.55565757513061</v>
@@ -2153,7 +2153,7 @@
         <v>14.51631133477177</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>0.5755217513143562</v>
+        <v>0.5755217513143507</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>16.22952625475099</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>8.207746763839136</v>
+        <v>7.821351380804879</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>2.512033669431963</v>
+        <v>1.924751099381291</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-10.27915968584109</v>
+        <v>-10.23101253194233</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>14.93675239378474</v>
+        <v>14.54198517816334</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>9.960110578939739</v>
+        <v>9.693054931848438</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-4.013454893019077</v>
+        <v>-3.853496118233146</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>12.30678686834702</v>
+        <v>12.60820360064262</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>7.288303021346657</v>
+        <v>7.488214152252372</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-5.639705210571319</v>
+        <v>-5.877888681274109</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>17.76399095297208</v>
+        <v>17.79114038373876</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>11.97060012689224</v>
+        <v>11.88185384536666</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-1.427194013806069</v>
+        <v>-1.375531467942137</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>24.77258155574899</v>
+        <v>24.53953704124209</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>19.44097161686295</v>
+        <v>19.48358846347357</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>4.614614349585007</v>
+        <v>4.707163982965324</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>19.47604742263292</v>
+        <v>19.65032950253248</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>14.17187791101215</v>
+        <v>14.36413042769966</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.4922643958667515</v>
+        <v>0.4329510189545988</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.2474913298328808</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.201380766303974</v>
+        <v>-0.2013807663039741</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.6337649731064614</v>
@@ -2258,7 +2258,7 @@
         <v>0.4704484943726165</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.01865166261183577</v>
+        <v>0.01865166261183559</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.5435279436213383</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.2597250226226175</v>
+        <v>0.2468035242405731</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.08445204605248918</v>
+        <v>0.05872378238186414</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3271447472593469</v>
+        <v>-0.3298113216953918</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.4473335202118243</v>
+        <v>0.4418225980305785</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.2989162554366636</v>
+        <v>0.2959988531550923</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1182776025903197</v>
+        <v>-0.1146409613500901</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3913873148459785</v>
+        <v>0.3964100470021624</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.2319389209490587</v>
+        <v>0.2315716350141805</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.182024086202254</v>
+        <v>-0.1814324945540224</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.6664599122681608</v>
+        <v>0.6763304695104628</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.4639932675416021</v>
+        <v>0.4397839923622324</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.04861106673911245</v>
+        <v>-0.05141269127659434</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.8616416301569376</v>
+        <v>0.8667394794336575</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.6887354275042773</v>
+        <v>0.6875571517063084</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1599371008013721</v>
+        <v>0.1664704898163894</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.6831799163203435</v>
+        <v>0.7050267566267402</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.5047718846330506</v>
+        <v>0.5133388873463759</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.01800482697869363</v>
+        <v>0.01593001989683921</v>
       </c>
     </row>
     <row r="52">
@@ -2367,7 +2367,7 @@
         <v>4.220076965555069</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-16.50307536784855</v>
+        <v>-16.50307536784856</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>16.36414956668145</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>13.36998397612792</v>
+        <v>13.12765040864703</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.008905682211989736</v>
+        <v>0.03109339426977764</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-17.63395444958776</v>
+        <v>-17.63402368711197</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>14.73067234721598</v>
+        <v>14.84421599456708</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>2.015604481004652</v>
+        <v>1.966830819942791</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-18.2820680128144</v>
+        <v>-18.53094612914369</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>14.78501677506542</v>
+        <v>14.53707123169209</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>1.526808707781984</v>
+        <v>1.498308480685782</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-17.4952749184893</v>
+        <v>-17.40081138520693</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>18.15186422863604</v>
+        <v>17.90881990327307</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>4.375441613737372</v>
+        <v>4.342373671812164</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-13.68718442543779</v>
+        <v>-13.43139142887372</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>19.32508673112306</v>
+        <v>19.57900559351914</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>6.594441087697191</v>
+        <v>6.660406441364739</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-14.15683740553921</v>
+        <v>-14.53173179241005</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>18.13838740976098</v>
+        <v>18.06062273761895</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>4.878936217008345</v>
+        <v>4.838371445581343</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-14.47334592846571</v>
+        <v>-14.5352704517748</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>0.1222056784668411</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.4778987536432474</v>
+        <v>-0.4778987536432475</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.5131819505420775</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.4458402630335976</v>
+        <v>0.4298996021854449</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.0005846717767144754</v>
+        <v>0.001031122275758873</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.5841713789684299</v>
+        <v>-0.5842907397390927</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.4119068664912525</v>
+        <v>0.4180719647960167</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.05748809963382009</v>
+        <v>0.054310117680966</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.5157600692119817</v>
+        <v>-0.517745602644003</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.4524384028759598</v>
+        <v>0.4410353562019593</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.04677055920311252</v>
+        <v>0.04645867143807445</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.5341327388532603</v>
+        <v>-0.5310463179007588</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.6501368714342169</v>
+        <v>0.6433994111499476</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.1572958154084788</v>
+        <v>0.1543313329250214</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.4856664342456403</v>
+        <v>-0.4827150051527462</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.5772828757869272</v>
+        <v>0.589520179089516</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.1992784254456104</v>
+        <v>0.1991400012019419</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.4319752993384146</v>
+        <v>-0.4350037398256423</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.5873868954382596</v>
+        <v>0.5804612278333221</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.1574388214886575</v>
+        <v>0.1566014950447363</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.4666849794708889</v>
+        <v>-0.4676668782409984</v>
       </c>
     </row>
     <row r="58">
